--- a/Code/Results/Cases/Case_2_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9998150069097126</v>
+        <v>1.028866310830283</v>
       </c>
       <c r="D2">
-        <v>1.021089705563706</v>
+        <v>1.03690681157448</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.025345042223699</v>
+        <v>1.045727360765864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044405576289281</v>
+        <v>1.033921561471159</v>
       </c>
       <c r="J2">
-        <v>1.022001252497485</v>
+        <v>1.034016254314096</v>
       </c>
       <c r="K2">
-        <v>1.032262842700543</v>
+        <v>1.039699213289268</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.036462221318805</v>
+        <v>1.048494789185094</v>
       </c>
       <c r="N2">
-        <v>1.023452611501213</v>
+        <v>1.035484675998544</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004019411788294</v>
+        <v>1.029760210865075</v>
       </c>
       <c r="D3">
-        <v>1.024106523907658</v>
+        <v>1.03756844474071</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.028902180850896</v>
+        <v>1.046527995211856</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045295320325753</v>
+        <v>1.034051854403364</v>
       </c>
       <c r="J3">
-        <v>1.024401100104962</v>
+        <v>1.034551229255425</v>
       </c>
       <c r="K3">
-        <v>1.034439975672245</v>
+        <v>1.040170937157915</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.039178140688992</v>
+        <v>1.04910695086899</v>
       </c>
       <c r="N3">
-        <v>1.025855867167559</v>
+        <v>1.036020410665653</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006687257144134</v>
+        <v>1.030339144226321</v>
       </c>
       <c r="D4">
-        <v>1.02602331173187</v>
+        <v>1.037996868165948</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.03116386441855</v>
+        <v>1.047046694576457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045849800402536</v>
+        <v>1.034134962767797</v>
       </c>
       <c r="J4">
-        <v>1.02592143540041</v>
+        <v>1.034897287257762</v>
       </c>
       <c r="K4">
-        <v>1.035817484690329</v>
+        <v>1.040475793455666</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.040900173510932</v>
+        <v>1.049503040600783</v>
       </c>
       <c r="N4">
-        <v>1.027378361513513</v>
+        <v>1.036366960110046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007796622693569</v>
+        <v>1.030582651035127</v>
       </c>
       <c r="D5">
-        <v>1.02682091396342</v>
+        <v>1.038177048131475</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.032105377319597</v>
+        <v>1.047264906090025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046077906376264</v>
+        <v>1.034169613645698</v>
       </c>
       <c r="J5">
-        <v>1.026553013306288</v>
+        <v>1.035042743365457</v>
       </c>
       <c r="K5">
-        <v>1.036389298270781</v>
+        <v>1.040603862698475</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.041615879935491</v>
+        <v>1.049669550495433</v>
       </c>
       <c r="N5">
-        <v>1.028010836332459</v>
+        <v>1.036512622782098</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007982186582561</v>
+        <v>1.030623544087147</v>
       </c>
       <c r="D6">
-        <v>1.026954359757893</v>
+        <v>1.038207305241245</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.032262924178657</v>
+        <v>1.047301553524636</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04611591580944</v>
+        <v>1.03417541478105</v>
       </c>
       <c r="J6">
-        <v>1.026658620137614</v>
+        <v>1.035067164487743</v>
       </c>
       <c r="K6">
-        <v>1.036484886035356</v>
+        <v>1.040625360636924</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.041735573612665</v>
+        <v>1.049697507830962</v>
       </c>
       <c r="N6">
-        <v>1.028116593137599</v>
+        <v>1.036537078585179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00670212792741</v>
+        <v>1.030342397493691</v>
       </c>
       <c r="D7">
-        <v>1.026034001308978</v>
+        <v>1.037999275463536</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.031176481131971</v>
+        <v>1.047049609741067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045852867887797</v>
+        <v>1.03413542690647</v>
       </c>
       <c r="J7">
-        <v>1.025929904045092</v>
+        <v>1.034899230955675</v>
       </c>
       <c r="K7">
-        <v>1.035825153697334</v>
+        <v>1.040477505087555</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.040909768884591</v>
+        <v>1.049505265540487</v>
       </c>
       <c r="N7">
-        <v>1.02738684218464</v>
+        <v>1.036368906568233</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001247071156016</v>
+        <v>1.029168300008079</v>
       </c>
       <c r="D8">
-        <v>1.022116706083113</v>
+        <v>1.037130349959317</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.026555655127417</v>
+        <v>1.045997806291352</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044710722714115</v>
+        <v>1.033965842643196</v>
       </c>
       <c r="J8">
-        <v>1.022819160274463</v>
+        <v>1.034197072962486</v>
       </c>
       <c r="K8">
-        <v>1.0330051998053</v>
+        <v>1.039858712642773</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.037387537736303</v>
+        <v>1.048701675301611</v>
       </c>
       <c r="N8">
-        <v>1.02427168080105</v>
+        <v>1.035665751430155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9912113228042088</v>
+        <v>1.027103433585854</v>
       </c>
       <c r="D9">
-        <v>1.01493253770287</v>
+        <v>1.03560158277943</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.018093293453956</v>
+        <v>1.044149339733557</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042531218199175</v>
+        <v>1.033657851565002</v>
       </c>
       <c r="J9">
-        <v>1.017078295325417</v>
+        <v>1.032959016268382</v>
       </c>
       <c r="K9">
-        <v>1.027787903102667</v>
+        <v>1.038765460793317</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.030899485046789</v>
+        <v>1.04728556049517</v>
       </c>
       <c r="N9">
-        <v>1.01852266316529</v>
+        <v>1.034425936553538</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.984207021585479</v>
+        <v>1.025729652922502</v>
       </c>
       <c r="D10">
-        <v>1.009937549643143</v>
+        <v>1.034584110993785</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.012216956332904</v>
+        <v>1.042920460779829</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040959771553857</v>
+        <v>1.033446401400987</v>
       </c>
       <c r="J10">
-        <v>1.013061554923524</v>
+        <v>1.032133200147101</v>
       </c>
       <c r="K10">
-        <v>1.024129667103129</v>
+        <v>1.038034776011988</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.026369078576021</v>
+        <v>1.046341514226509</v>
       </c>
       <c r="N10">
-        <v>1.0145002185313</v>
+        <v>1.033598947678642</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9810926132461669</v>
+        <v>1.025135470412192</v>
       </c>
       <c r="D11">
-        <v>1.007721997396778</v>
+        <v>1.034143960033077</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.009612041066046</v>
+        <v>1.042389179166828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040249722905044</v>
+        <v>1.033353396694143</v>
       </c>
       <c r="J11">
-        <v>1.011273678399819</v>
+        <v>1.031775521553562</v>
       </c>
       <c r="K11">
-        <v>1.022499742777404</v>
+        <v>1.037717957902802</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.024354936714251</v>
+        <v>1.045932757461478</v>
       </c>
       <c r="N11">
-        <v>1.012709803017859</v>
+        <v>1.033240761140474</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9799228941631476</v>
+        <v>1.024914867050176</v>
       </c>
       <c r="D12">
-        <v>1.006890769536038</v>
+        <v>1.033980533299683</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.008634952038273</v>
+        <v>1.042191964190009</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039981394191117</v>
+        <v>1.033318634057883</v>
       </c>
       <c r="J12">
-        <v>1.010601946904099</v>
+        <v>1.031642650707695</v>
       </c>
       <c r="K12">
-        <v>1.021887133387926</v>
+        <v>1.037600214650215</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.023598568955714</v>
+        <v>1.045780931708344</v>
       </c>
       <c r="N12">
-        <v>1.012037117586366</v>
+        <v>1.033107701602766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9801743969616126</v>
+        <v>1.024962182562235</v>
       </c>
       <c r="D13">
-        <v>1.007069451088048</v>
+        <v>1.034015585923625</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.008844978379471</v>
+        <v>1.042234261710913</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040039161402398</v>
+        <v>1.033326100550833</v>
       </c>
       <c r="J13">
-        <v>1.01074638664903</v>
+        <v>1.031671152529143</v>
       </c>
       <c r="K13">
-        <v>1.022018870073678</v>
+        <v>1.037625473804419</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.023761190443755</v>
+        <v>1.045813498610931</v>
       </c>
       <c r="N13">
-        <v>1.012181762452303</v>
+        <v>1.033136243900069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9809961907154883</v>
+        <v>1.025117233171528</v>
       </c>
       <c r="D14">
-        <v>1.007653458754384</v>
+        <v>1.034130449794061</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.00953147111087</v>
+        <v>1.042372874720848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040227637130574</v>
+        <v>1.03335052761777</v>
       </c>
       <c r="J14">
-        <v>1.011218310606993</v>
+        <v>1.031764538668407</v>
       </c>
       <c r="K14">
-        <v>1.022449252561814</v>
+        <v>1.037708226484924</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.024292585002579</v>
+        <v>1.045920207392742</v>
       </c>
       <c r="N14">
-        <v>1.012654356596416</v>
+        <v>1.033229762658362</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9815007970272578</v>
+        <v>1.025212778586953</v>
       </c>
       <c r="D15">
-        <v>1.008012177830594</v>
+        <v>1.034201229869684</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.009953168801858</v>
+        <v>1.042458295610093</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040343151417962</v>
+        <v>1.033365549263468</v>
       </c>
       <c r="J15">
-        <v>1.01150805656704</v>
+        <v>1.031822075250604</v>
       </c>
       <c r="K15">
-        <v>1.022713464644391</v>
+        <v>1.037759204844054</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.024618894004378</v>
+        <v>1.045985954863306</v>
       </c>
       <c r="N15">
-        <v>1.012944514028961</v>
+        <v>1.033287380949106</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9844119434309025</v>
+        <v>1.025769101159614</v>
       </c>
       <c r="D16">
-        <v>1.010083448459033</v>
+        <v>1.034613331377259</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.012388526865541</v>
+        <v>1.042955737855149</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041006259914868</v>
+        <v>1.03345254341611</v>
       </c>
       <c r="J16">
-        <v>1.013179158505732</v>
+        <v>1.03215693619868</v>
       </c>
       <c r="K16">
-        <v>1.024236848804648</v>
+        <v>1.038055793298758</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.026501616485781</v>
+        <v>1.046368642646055</v>
       </c>
       <c r="N16">
-        <v>1.014617989124084</v>
+        <v>1.033622717438137</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9862157668365129</v>
+        <v>1.026118248851345</v>
       </c>
       <c r="D17">
-        <v>1.01136835005243</v>
+        <v>1.03487194567232</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.013899690630501</v>
+        <v>1.043267994015217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041414190637524</v>
+        <v>1.033506726005514</v>
       </c>
       <c r="J17">
-        <v>1.014214156331277</v>
+        <v>1.032366961063054</v>
       </c>
       <c r="K17">
-        <v>1.025179944386366</v>
+        <v>1.038241722000354</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.027668319457454</v>
+        <v>1.046608699382282</v>
       </c>
       <c r="N17">
-        <v>1.015654456765257</v>
+        <v>1.033833040561909</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9872600887006362</v>
+        <v>1.026321965697724</v>
       </c>
       <c r="D18">
-        <v>1.012112752898073</v>
+        <v>1.035022831526981</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.014775327371972</v>
+        <v>1.043450207816718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041649283332531</v>
+        <v>1.03353819029328</v>
       </c>
       <c r="J18">
-        <v>1.014813187292117</v>
+        <v>1.032489455792916</v>
       </c>
       <c r="K18">
-        <v>1.025725629432579</v>
+        <v>1.038350129806898</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.028343801796115</v>
+        <v>1.046748722390286</v>
       </c>
       <c r="N18">
-        <v>1.016254338418771</v>
+        <v>1.033955709248337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9876148683231174</v>
+        <v>1.026391438847929</v>
       </c>
       <c r="D19">
-        <v>1.012365727505487</v>
+        <v>1.035074286524675</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.015072925793445</v>
+        <v>1.043512351539784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041728965105073</v>
+        <v>1.03354889512225</v>
       </c>
       <c r="J19">
-        <v>1.015016659732836</v>
+        <v>1.032531221731466</v>
       </c>
       <c r="K19">
-        <v>1.025910954976203</v>
+        <v>1.038387087032041</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.028573279830712</v>
+        <v>1.046796466907505</v>
       </c>
       <c r="N19">
-        <v>1.016458099813694</v>
+        <v>1.033997534499311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9860230468140698</v>
+        <v>1.026080781885641</v>
       </c>
       <c r="D20">
-        <v>1.011231018008842</v>
+        <v>1.034844194603537</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.013738159953192</v>
+        <v>1.043234483589705</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041370718914628</v>
+        <v>1.033500927151203</v>
       </c>
       <c r="J20">
-        <v>1.014103595798286</v>
+        <v>1.032344428328159</v>
       </c>
       <c r="K20">
-        <v>1.025079216989705</v>
+        <v>1.038221777869138</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.027543666577885</v>
+        <v>1.046582943351365</v>
       </c>
       <c r="N20">
-        <v>1.015543739223628</v>
+        <v>1.033810475827947</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9807545541341588</v>
+        <v>1.025071571792424</v>
       </c>
       <c r="D21">
-        <v>1.007481714410443</v>
+        <v>1.034096623441268</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.009329582150461</v>
+        <v>1.042332053133044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040172263446099</v>
+        <v>1.033343340428271</v>
       </c>
       <c r="J21">
-        <v>1.01107955429493</v>
+        <v>1.031737039130138</v>
       </c>
       <c r="K21">
-        <v>1.022322716346616</v>
+        <v>1.037683859609657</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.024136332513086</v>
+        <v>1.045888784174271</v>
       </c>
       <c r="N21">
-        <v>1.012515403234475</v>
+        <v>1.033202224067595</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773671199798828</v>
+        <v>1.024437634895601</v>
       </c>
       <c r="D22">
-        <v>1.005076319497893</v>
+        <v>1.033626972279199</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.006502494275383</v>
+        <v>1.041765393052687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039392144571502</v>
+        <v>1.033243006827034</v>
       </c>
       <c r="J22">
-        <v>1.009133867516933</v>
+        <v>1.031355074263614</v>
       </c>
       <c r="K22">
-        <v>1.020547879833482</v>
+        <v>1.037345285729345</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.02194622678286</v>
+        <v>1.045452366726521</v>
       </c>
       <c r="N22">
-        <v>1.01056695335808</v>
+        <v>1.032819716767148</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.97917019144599</v>
+        <v>1.024773640149525</v>
       </c>
       <c r="D23">
-        <v>1.006356145401804</v>
+        <v>1.033875906999987</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.008006573692647</v>
+        <v>1.042065720126906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039808270276762</v>
+        <v>1.033296314094231</v>
       </c>
       <c r="J23">
-        <v>1.010169633736729</v>
+        <v>1.031557567808822</v>
       </c>
       <c r="K23">
-        <v>1.021492809879655</v>
+        <v>1.037524804181474</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.023111893651403</v>
+        <v>1.045683716727217</v>
       </c>
       <c r="N23">
-        <v>1.011604190484712</v>
+        <v>1.033022497876418</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9861101528092397</v>
+        <v>1.026097711394272</v>
       </c>
       <c r="D24">
-        <v>1.011293088054729</v>
+        <v>1.034856733992016</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.013811166604713</v>
+        <v>1.043249625261378</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041390370701203</v>
+        <v>1.033503547834956</v>
       </c>
       <c r="J24">
-        <v>1.014153567738691</v>
+        <v>1.032354609929761</v>
       </c>
       <c r="K24">
-        <v>1.025124744961522</v>
+        <v>1.038230789891171</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.02760000738567</v>
+        <v>1.046594581387148</v>
       </c>
       <c r="N24">
-        <v>1.01559378212992</v>
+        <v>1.033820671888591</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9938588613432706</v>
+        <v>1.027636763822857</v>
       </c>
       <c r="D25">
-        <v>1.016824789431288</v>
+        <v>1.035996512228063</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.020320882325633</v>
+        <v>1.04462661554602</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043115068601198</v>
+        <v>1.033738556548687</v>
       </c>
       <c r="J25">
-        <v>1.018594681652603</v>
+        <v>1.033279167089877</v>
       </c>
       <c r="K25">
-        <v>1.029167418248624</v>
+        <v>1.039048424057639</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.032611725133732</v>
+        <v>1.047651661233394</v>
       </c>
       <c r="N25">
-        <v>1.020041202934992</v>
+        <v>1.034746542025921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028866310830283</v>
+        <v>0.9998150069097131</v>
       </c>
       <c r="D2">
-        <v>1.03690681157448</v>
+        <v>1.021089705563706</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.045727360765864</v>
+        <v>1.0253450422237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033921561471159</v>
+        <v>1.044405576289281</v>
       </c>
       <c r="J2">
-        <v>1.034016254314096</v>
+        <v>1.022001252497485</v>
       </c>
       <c r="K2">
-        <v>1.039699213289268</v>
+        <v>1.032262842700544</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.048494789185094</v>
+        <v>1.036462221318805</v>
       </c>
       <c r="N2">
-        <v>1.035484675998544</v>
+        <v>1.023452611501214</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029760210865075</v>
+        <v>1.004019411788294</v>
       </c>
       <c r="D3">
-        <v>1.03756844474071</v>
+        <v>1.024106523907658</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.046527995211856</v>
+        <v>1.028902180850896</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034051854403364</v>
+        <v>1.045295320325753</v>
       </c>
       <c r="J3">
-        <v>1.034551229255425</v>
+        <v>1.024401100104962</v>
       </c>
       <c r="K3">
-        <v>1.040170937157915</v>
+        <v>1.034439975672245</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.04910695086899</v>
+        <v>1.039178140688992</v>
       </c>
       <c r="N3">
-        <v>1.036020410665653</v>
+        <v>1.025855867167559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030339144226321</v>
+        <v>1.006687257144134</v>
       </c>
       <c r="D4">
-        <v>1.037996868165948</v>
+        <v>1.026023311731871</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.047046694576457</v>
+        <v>1.031163864418551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034134962767797</v>
+        <v>1.045849800402536</v>
       </c>
       <c r="J4">
-        <v>1.034897287257762</v>
+        <v>1.025921435400411</v>
       </c>
       <c r="K4">
-        <v>1.040475793455666</v>
+        <v>1.03581748469033</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.049503040600783</v>
+        <v>1.040900173510932</v>
       </c>
       <c r="N4">
-        <v>1.036366960110046</v>
+        <v>1.027378361513513</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030582651035127</v>
+        <v>1.007796622693569</v>
       </c>
       <c r="D5">
-        <v>1.038177048131475</v>
+        <v>1.02682091396342</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.047264906090025</v>
+        <v>1.032105377319597</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034169613645698</v>
+        <v>1.046077906376264</v>
       </c>
       <c r="J5">
-        <v>1.035042743365457</v>
+        <v>1.026553013306288</v>
       </c>
       <c r="K5">
-        <v>1.040603862698475</v>
+        <v>1.036389298270781</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049669550495433</v>
+        <v>1.041615879935491</v>
       </c>
       <c r="N5">
-        <v>1.036512622782098</v>
+        <v>1.028010836332459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030623544087147</v>
+        <v>1.00798218658256</v>
       </c>
       <c r="D6">
-        <v>1.038207305241245</v>
+        <v>1.026954359757892</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.047301553524636</v>
+        <v>1.032262924178657</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03417541478105</v>
+        <v>1.04611591580944</v>
       </c>
       <c r="J6">
-        <v>1.035067164487743</v>
+        <v>1.026658620137614</v>
       </c>
       <c r="K6">
-        <v>1.040625360636924</v>
+        <v>1.036484886035355</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.049697507830962</v>
+        <v>1.041735573612664</v>
       </c>
       <c r="N6">
-        <v>1.036537078585179</v>
+        <v>1.028116593137599</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030342397493691</v>
+        <v>1.006702127927409</v>
       </c>
       <c r="D7">
-        <v>1.037999275463536</v>
+        <v>1.026034001308977</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.047049609741067</v>
+        <v>1.031176481131971</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03413542690647</v>
+        <v>1.045852867887796</v>
       </c>
       <c r="J7">
-        <v>1.034899230955675</v>
+        <v>1.025929904045091</v>
       </c>
       <c r="K7">
-        <v>1.040477505087555</v>
+        <v>1.035825153697332</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049505265540487</v>
+        <v>1.040909768884591</v>
       </c>
       <c r="N7">
-        <v>1.036368906568233</v>
+        <v>1.027386842184639</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029168300008079</v>
+        <v>1.001247071156017</v>
       </c>
       <c r="D8">
-        <v>1.037130349959317</v>
+        <v>1.022116706083114</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.045997806291352</v>
+        <v>1.026555655127417</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033965842643196</v>
+        <v>1.044710722714115</v>
       </c>
       <c r="J8">
-        <v>1.034197072962486</v>
+        <v>1.022819160274463</v>
       </c>
       <c r="K8">
-        <v>1.039858712642773</v>
+        <v>1.033005199805301</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.048701675301611</v>
+        <v>1.037387537736304</v>
       </c>
       <c r="N8">
-        <v>1.035665751430155</v>
+        <v>1.024271680801051</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027103433585854</v>
+        <v>0.9912113228042084</v>
       </c>
       <c r="D9">
-        <v>1.03560158277943</v>
+        <v>1.01493253770287</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.044149339733557</v>
+        <v>1.018093293453956</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033657851565002</v>
+        <v>1.042531218199175</v>
       </c>
       <c r="J9">
-        <v>1.032959016268382</v>
+        <v>1.017078295325416</v>
       </c>
       <c r="K9">
-        <v>1.038765460793317</v>
+        <v>1.027787903102667</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.04728556049517</v>
+        <v>1.030899485046789</v>
       </c>
       <c r="N9">
-        <v>1.034425936553538</v>
+        <v>1.01852266316529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025729652922502</v>
+        <v>0.9842070215854787</v>
       </c>
       <c r="D10">
-        <v>1.034584110993785</v>
+        <v>1.009937549643142</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.042920460779829</v>
+        <v>1.012216956332904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033446401400987</v>
+        <v>1.040959771553857</v>
       </c>
       <c r="J10">
-        <v>1.032133200147101</v>
+        <v>1.013061554923524</v>
       </c>
       <c r="K10">
-        <v>1.038034776011988</v>
+        <v>1.024129667103129</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.046341514226509</v>
+        <v>1.02636907857602</v>
       </c>
       <c r="N10">
-        <v>1.033598947678642</v>
+        <v>1.0145002185313</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025135470412192</v>
+        <v>0.9810926132461659</v>
       </c>
       <c r="D11">
-        <v>1.034143960033077</v>
+        <v>1.007721997396777</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.042389179166828</v>
+        <v>1.009612041066045</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033353396694143</v>
+        <v>1.040249722905043</v>
       </c>
       <c r="J11">
-        <v>1.031775521553562</v>
+        <v>1.011273678399818</v>
       </c>
       <c r="K11">
-        <v>1.037717957902802</v>
+        <v>1.022499742777403</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.045932757461478</v>
+        <v>1.02435493671425</v>
       </c>
       <c r="N11">
-        <v>1.033240761140474</v>
+        <v>1.012709803017859</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024914867050176</v>
+        <v>0.9799228941631473</v>
       </c>
       <c r="D12">
-        <v>1.033980533299683</v>
+        <v>1.006890769536037</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.042191964190009</v>
+        <v>1.008634952038273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033318634057883</v>
+        <v>1.039981394191116</v>
       </c>
       <c r="J12">
-        <v>1.031642650707695</v>
+        <v>1.010601946904099</v>
       </c>
       <c r="K12">
-        <v>1.037600214650215</v>
+        <v>1.021887133387926</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.045780931708344</v>
+        <v>1.023598568955714</v>
       </c>
       <c r="N12">
-        <v>1.033107701602766</v>
+        <v>1.012037117586366</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024962182562235</v>
+        <v>0.9801743969616136</v>
       </c>
       <c r="D13">
-        <v>1.034015585923625</v>
+        <v>1.007069451088049</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.042234261710913</v>
+        <v>1.008844978379472</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033326100550833</v>
+        <v>1.040039161402398</v>
       </c>
       <c r="J13">
-        <v>1.031671152529143</v>
+        <v>1.010746386649031</v>
       </c>
       <c r="K13">
-        <v>1.037625473804419</v>
+        <v>1.022018870073679</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.045813498610931</v>
+        <v>1.023761190443756</v>
       </c>
       <c r="N13">
-        <v>1.033136243900069</v>
+        <v>1.012181762452304</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025117233171528</v>
+        <v>0.9809961907154889</v>
       </c>
       <c r="D14">
-        <v>1.034130449794061</v>
+        <v>1.007653458754384</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.042372874720848</v>
+        <v>1.009531471110871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03335052761777</v>
+        <v>1.040227637130575</v>
       </c>
       <c r="J14">
-        <v>1.031764538668407</v>
+        <v>1.011218310606993</v>
       </c>
       <c r="K14">
-        <v>1.037708226484924</v>
+        <v>1.022449252561815</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.045920207392742</v>
+        <v>1.02429258500258</v>
       </c>
       <c r="N14">
-        <v>1.033229762658362</v>
+        <v>1.012654356596416</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025212778586953</v>
+        <v>0.981500797027259</v>
       </c>
       <c r="D15">
-        <v>1.034201229869684</v>
+        <v>1.008012177830595</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.042458295610093</v>
+        <v>1.009953168801859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033365549263468</v>
+        <v>1.040343151417962</v>
       </c>
       <c r="J15">
-        <v>1.031822075250604</v>
+        <v>1.011508056567041</v>
       </c>
       <c r="K15">
-        <v>1.037759204844054</v>
+        <v>1.022713464644392</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.045985954863306</v>
+        <v>1.024618894004379</v>
       </c>
       <c r="N15">
-        <v>1.033287380949106</v>
+        <v>1.012944514028963</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025769101159614</v>
+        <v>0.9844119434309033</v>
       </c>
       <c r="D16">
-        <v>1.034613331377259</v>
+        <v>1.010083448459034</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.042955737855149</v>
+        <v>1.012388526865542</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03345254341611</v>
+        <v>1.041006259914868</v>
       </c>
       <c r="J16">
-        <v>1.03215693619868</v>
+        <v>1.013179158505732</v>
       </c>
       <c r="K16">
-        <v>1.038055793298758</v>
+        <v>1.024236848804649</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.046368642646055</v>
+        <v>1.026501616485782</v>
       </c>
       <c r="N16">
-        <v>1.033622717438137</v>
+        <v>1.014617989124085</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026118248851345</v>
+        <v>0.9862157668365126</v>
       </c>
       <c r="D17">
-        <v>1.03487194567232</v>
+        <v>1.01136835005243</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.043267994015217</v>
+        <v>1.013899690630501</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033506726005514</v>
+        <v>1.041414190637524</v>
       </c>
       <c r="J17">
-        <v>1.032366961063054</v>
+        <v>1.014214156331277</v>
       </c>
       <c r="K17">
-        <v>1.038241722000354</v>
+        <v>1.025179944386366</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.046608699382282</v>
+        <v>1.027668319457454</v>
       </c>
       <c r="N17">
-        <v>1.033833040561909</v>
+        <v>1.015654456765257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026321965697724</v>
+        <v>0.9872600887006359</v>
       </c>
       <c r="D18">
-        <v>1.035022831526981</v>
+        <v>1.012112752898073</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.043450207816718</v>
+        <v>1.014775327371972</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03353819029328</v>
+        <v>1.041649283332531</v>
       </c>
       <c r="J18">
-        <v>1.032489455792916</v>
+        <v>1.014813187292117</v>
       </c>
       <c r="K18">
-        <v>1.038350129806898</v>
+        <v>1.025725629432579</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.046748722390286</v>
+        <v>1.028343801796114</v>
       </c>
       <c r="N18">
-        <v>1.033955709248337</v>
+        <v>1.016254338418771</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026391438847929</v>
+        <v>0.9876148683231177</v>
       </c>
       <c r="D19">
-        <v>1.035074286524675</v>
+        <v>1.012365727505487</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.043512351539784</v>
+        <v>1.015072925793445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03354889512225</v>
+        <v>1.041728965105073</v>
       </c>
       <c r="J19">
-        <v>1.032531221731466</v>
+        <v>1.015016659732836</v>
       </c>
       <c r="K19">
-        <v>1.038387087032041</v>
+        <v>1.025910954976203</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.046796466907505</v>
+        <v>1.028573279830712</v>
       </c>
       <c r="N19">
-        <v>1.033997534499311</v>
+        <v>1.016458099813695</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026080781885641</v>
+        <v>0.9860230468140705</v>
       </c>
       <c r="D20">
-        <v>1.034844194603537</v>
+        <v>1.011231018008842</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.043234483589705</v>
+        <v>1.013738159953192</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033500927151203</v>
+        <v>1.041370718914628</v>
       </c>
       <c r="J20">
-        <v>1.032344428328159</v>
+        <v>1.014103595798287</v>
       </c>
       <c r="K20">
-        <v>1.038221777869138</v>
+        <v>1.025079216989706</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.046582943351365</v>
+        <v>1.027543666577885</v>
       </c>
       <c r="N20">
-        <v>1.033810475827947</v>
+        <v>1.015543739223629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025071571792424</v>
+        <v>0.9807545541341584</v>
       </c>
       <c r="D21">
-        <v>1.034096623441268</v>
+        <v>1.007481714410442</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.042332053133044</v>
+        <v>1.009329582150461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033343340428271</v>
+        <v>1.040172263446099</v>
       </c>
       <c r="J21">
-        <v>1.031737039130138</v>
+        <v>1.01107955429493</v>
       </c>
       <c r="K21">
-        <v>1.037683859609657</v>
+        <v>1.022322716346615</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.045888784174271</v>
+        <v>1.024136332513086</v>
       </c>
       <c r="N21">
-        <v>1.033202224067595</v>
+        <v>1.012515403234474</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024437634895601</v>
+        <v>0.9773671199798833</v>
       </c>
       <c r="D22">
-        <v>1.033626972279199</v>
+        <v>1.005076319497894</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.041765393052687</v>
+        <v>1.006502494275384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033243006827034</v>
+        <v>1.039392144571502</v>
       </c>
       <c r="J22">
-        <v>1.031355074263614</v>
+        <v>1.009133867516934</v>
       </c>
       <c r="K22">
-        <v>1.037345285729345</v>
+        <v>1.020547879833483</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.045452366726521</v>
+        <v>1.021946226782861</v>
       </c>
       <c r="N22">
-        <v>1.032819716767148</v>
+        <v>1.010566953358081</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024773640149525</v>
+        <v>0.979170191445991</v>
       </c>
       <c r="D23">
-        <v>1.033875906999987</v>
+        <v>1.006356145401805</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.042065720126906</v>
+        <v>1.008006573692648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033296314094231</v>
+        <v>1.039808270276762</v>
       </c>
       <c r="J23">
-        <v>1.031557567808822</v>
+        <v>1.01016963373673</v>
       </c>
       <c r="K23">
-        <v>1.037524804181474</v>
+        <v>1.021492809879656</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.045683716727217</v>
+        <v>1.023111893651404</v>
       </c>
       <c r="N23">
-        <v>1.033022497876418</v>
+        <v>1.011604190484713</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026097711394272</v>
+        <v>0.9861101528092392</v>
       </c>
       <c r="D24">
-        <v>1.034856733992016</v>
+        <v>1.011293088054728</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.043249625261378</v>
+        <v>1.013811166604713</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033503547834956</v>
+        <v>1.041390370701203</v>
       </c>
       <c r="J24">
-        <v>1.032354609929761</v>
+        <v>1.01415356773869</v>
       </c>
       <c r="K24">
-        <v>1.038230789891171</v>
+        <v>1.025124744961522</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.046594581387148</v>
+        <v>1.02760000738567</v>
       </c>
       <c r="N24">
-        <v>1.033820671888591</v>
+        <v>1.015593782129919</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027636763822857</v>
+        <v>0.9938588613432706</v>
       </c>
       <c r="D25">
-        <v>1.035996512228063</v>
+        <v>1.016824789431288</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.04462661554602</v>
+        <v>1.020320882325633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033738556548687</v>
+        <v>1.043115068601198</v>
       </c>
       <c r="J25">
-        <v>1.033279167089877</v>
+        <v>1.018594681652603</v>
       </c>
       <c r="K25">
-        <v>1.039048424057639</v>
+        <v>1.029167418248624</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.047651661233394</v>
+        <v>1.032611725133732</v>
       </c>
       <c r="N25">
-        <v>1.034746542025921</v>
+        <v>1.020041202934992</v>
       </c>
     </row>
   </sheetData>
